--- a/Income/ENPH_inc.xlsx
+++ b/Income/ENPH_inc.xlsx
@@ -3658,16 +3658,16 @@
         <v>0.263</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.2338</v>
+        <v>0.2322</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.207</v>
+        <v>0.2054</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.2135</v>
+        <v>0.212</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.189</v>
+        <v>0.1872</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0.1494</v>
